--- a/Descriptive Statistics/continuous_descriptive_stats_v2.xlsx
+++ b/Descriptive Statistics/continuous_descriptive_stats_v2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b407939\Documents\GitHub\MA\Descriptive Statistics\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8130"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -135,8 +130,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,7 +142,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -196,14 +194,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -491,19 +481,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="30.1796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,18 +511,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.10100000000000001</v>
+        <v>0.101</v>
       </c>
       <c r="C2">
-        <v>7.2999999999999995E-2</v>
+        <v>0.073</v>
       </c>
       <c r="D2">
-        <v>0.89700000000000002</v>
+        <v>0.897</v>
       </c>
       <c r="E2">
         <v>-3.71</v>
@@ -549,7 +534,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -560,65 +545,65 @@
         <v>0.154</v>
       </c>
       <c r="D3">
-        <v>1.6759999999999999</v>
+        <v>1.676</v>
       </c>
       <c r="E3">
-        <v>-11.122999999999999</v>
+        <v>-11.123</v>
       </c>
       <c r="F3">
-        <v>8.0530000000000008</v>
+        <v>8.053000000000001</v>
       </c>
       <c r="G3">
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.27200000000000002</v>
+        <v>0.272</v>
       </c>
       <c r="C4">
         <v>0.249</v>
       </c>
       <c r="D4">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="E4">
         <v>-12.177</v>
       </c>
       <c r="F4">
-        <v>10.313000000000001</v>
+        <v>10.313</v>
       </c>
       <c r="G4">
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.23400000000000001</v>
+        <v>0.234</v>
       </c>
       <c r="C5">
-        <v>0.19800000000000001</v>
+        <v>0.198</v>
       </c>
       <c r="D5">
-        <v>2.2530000000000001</v>
+        <v>2.253</v>
       </c>
       <c r="E5">
         <v>-10.635</v>
       </c>
       <c r="F5">
-        <v>8.4659999999999993</v>
+        <v>8.465999999999999</v>
       </c>
       <c r="G5">
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -626,10 +611,10 @@
         <v>0.309</v>
       </c>
       <c r="C6">
-        <v>0.27300000000000002</v>
+        <v>0.273</v>
       </c>
       <c r="D6">
-        <v>2.6829999999999998</v>
+        <v>2.683</v>
       </c>
       <c r="E6">
         <v>-11.097</v>
@@ -641,18 +626,18 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>447.20499999999998</v>
+        <v>447.205</v>
       </c>
       <c r="C7">
         <v>25.18</v>
       </c>
       <c r="D7">
-        <v>1856.0640000000001</v>
+        <v>1856.064</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -664,21 +649,21 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>6134.8509999999997</v>
+        <v>6134.851</v>
       </c>
       <c r="C8">
-        <v>734.44</v>
+        <v>734.4400000000001</v>
       </c>
       <c r="D8">
-        <v>11971.272000000001</v>
+        <v>11971.272</v>
       </c>
       <c r="E8">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="F8">
         <v>56648.12</v>
@@ -687,18 +672,18 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>1915.4670000000001</v>
+        <v>1915.467</v>
       </c>
       <c r="C9">
         <v>109.81</v>
       </c>
       <c r="D9">
-        <v>4079.9540000000002</v>
+        <v>4079.954</v>
       </c>
       <c r="E9">
         <v>-949.95</v>
@@ -710,12 +695,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10">
-        <v>894.72900000000004</v>
+        <v>894.729</v>
       </c>
       <c r="C10">
         <v>42.65</v>
@@ -733,12 +718,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11">
-        <v>2881.7719999999999</v>
+        <v>2881.772</v>
       </c>
       <c r="C11">
         <v>222.39</v>
@@ -756,7 +741,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -779,18 +764,18 @@
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13">
-        <v>19759.112000000001</v>
+        <v>19759.112</v>
       </c>
       <c r="C13">
         <v>1913.86</v>
       </c>
       <c r="D13">
-        <v>44425.601000000002</v>
+        <v>44425.601</v>
       </c>
       <c r="E13">
         <v>2.95</v>
@@ -802,21 +787,21 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14">
-        <v>1376.1980000000001</v>
+        <v>1376.198</v>
       </c>
       <c r="C14">
         <v>90.61</v>
       </c>
       <c r="D14">
-        <v>3153.1320000000001</v>
+        <v>3153.132</v>
       </c>
       <c r="E14">
-        <v>7.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="F14">
         <v>27624.9</v>
@@ -825,12 +810,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.35099999999999998</v>
+        <v>0.351</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -848,18 +833,18 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.33900000000000002</v>
+        <v>0.339</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.39900000000000002</v>
+        <v>0.399</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -871,18 +856,18 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.36299999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.41499999999999998</v>
+        <v>0.415</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -894,18 +879,18 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.35399999999999998</v>
+        <v>0.354</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.39700000000000002</v>
+        <v>0.397</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -917,18 +902,18 @@
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.32500000000000001</v>
+        <v>0.325</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.39200000000000002</v>
+        <v>0.392</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -940,7 +925,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -951,33 +936,33 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>3.7890000000000001</v>
+        <v>3.789</v>
       </c>
       <c r="E20">
-        <v>-10.297000000000001</v>
+        <v>-10.297</v>
       </c>
       <c r="F20">
-        <v>9.3360000000000003</v>
+        <v>9.336</v>
       </c>
       <c r="G20">
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21">
-        <v>6134.8509999999997</v>
+        <v>6134.851</v>
       </c>
       <c r="C21">
-        <v>734.44</v>
+        <v>734.4400000000001</v>
       </c>
       <c r="D21">
-        <v>11971.272000000001</v>
+        <v>11971.272</v>
       </c>
       <c r="E21">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="F21">
         <v>56648.12</v>
@@ -986,18 +971,18 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>14</v>
       </c>
       <c r="B22">
-        <v>1915.4670000000001</v>
+        <v>1915.467</v>
       </c>
       <c r="C22">
         <v>109.81</v>
       </c>
       <c r="D22">
-        <v>4079.9540000000002</v>
+        <v>4079.954</v>
       </c>
       <c r="E22">
         <v>-949.95</v>
@@ -1009,12 +994,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23">
-        <v>894.72900000000004</v>
+        <v>894.729</v>
       </c>
       <c r="C23">
         <v>42.65</v>
@@ -1032,12 +1017,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24">
-        <v>2881.7719999999999</v>
+        <v>2881.772</v>
       </c>
       <c r="C24">
         <v>222.39</v>
@@ -1055,12 +1040,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25">
-        <v>11.047000000000001</v>
+        <v>11.047</v>
       </c>
       <c r="C25">
         <v>1.008</v>
@@ -1069,7 +1054,7 @@
         <v>23.689</v>
       </c>
       <c r="E25">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="F25">
         <v>124.877</v>
@@ -1078,7 +1063,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1101,18 +1086,18 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>18</v>
       </c>
       <c r="B27">
-        <v>19759.112000000001</v>
+        <v>19759.112</v>
       </c>
       <c r="C27">
         <v>1913.86</v>
       </c>
       <c r="D27">
-        <v>44425.601000000002</v>
+        <v>44425.601</v>
       </c>
       <c r="E27">
         <v>2.95</v>
@@ -1124,15 +1109,15 @@
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
-        <v>1.3759999999999999</v>
+        <v>1.376</v>
       </c>
       <c r="C28">
-        <v>9.0999999999999998E-2</v>
+        <v>0.091</v>
       </c>
       <c r="D28">
         <v>3.153</v>
@@ -1147,18 +1132,18 @@
         <v>289</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
-        <v>0.44700000000000001</v>
+        <v>0.447</v>
       </c>
       <c r="C29">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="D29">
-        <v>1.8560000000000001</v>
+        <v>1.856</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1170,18 +1155,18 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30">
-        <v>5344.5950000000003</v>
+        <v>5344.595</v>
       </c>
       <c r="C30">
         <v>524.62</v>
       </c>
       <c r="D30">
-        <v>11986.353999999999</v>
+        <v>11986.354</v>
       </c>
       <c r="E30">
         <v>-21.67</v>
@@ -1193,35 +1178,35 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31">
-        <v>5.1269999999999998</v>
+        <v>5.127</v>
       </c>
       <c r="C31">
-        <v>3.3660000000000001</v>
+        <v>3.366</v>
       </c>
       <c r="D31">
-        <v>11.385999999999999</v>
+        <v>11.386</v>
       </c>
       <c r="E31">
-        <v>-49.722000000000001</v>
+        <v>-49.722</v>
       </c>
       <c r="F31">
-        <v>168.52500000000001</v>
+        <v>168.525</v>
       </c>
       <c r="G31">
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32">
-        <v>0.53600000000000003</v>
+        <v>0.536</v>
       </c>
       <c r="C32">
         <v>0.379</v>
@@ -1233,47 +1218,47 @@
         <v>-20.378</v>
       </c>
       <c r="F32">
-        <v>7.8879999999999999</v>
+        <v>7.888</v>
       </c>
       <c r="G32">
         <v>289</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33">
-        <v>9.5000000000000001E-2</v>
+        <v>0.095</v>
       </c>
       <c r="C33">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="D33">
-        <v>0.21299999999999999</v>
+        <v>0.213</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>2.0409999999999999</v>
+        <v>2.041</v>
       </c>
       <c r="G33">
         <v>289</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34">
-        <v>2.6429999999999998</v>
+        <v>2.643</v>
       </c>
       <c r="C34">
-        <v>0.26200000000000001</v>
+        <v>0.262</v>
       </c>
       <c r="D34">
-        <v>13.308999999999999</v>
+        <v>13.309</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1285,12 +1270,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35">
-        <v>-10.154999999999999</v>
+        <v>-10.155</v>
       </c>
       <c r="C35">
         <v>0.186</v>
@@ -1309,6 +1294,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>